--- a/api_test/api_data/api.xlsx
+++ b/api_test/api_data/api.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8BD603-F43A-EB4C-8927-E199E24F6B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53375C75-E788-524E-B691-45EDD32C8382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全息画像" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>1</t>
   </si>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>企业标签12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['data']['pagination']['totalCount']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="33" customHeight="1"/>
@@ -726,13 +742,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="33" customHeight="1">
@@ -752,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -824,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
